--- a/hotfix_test/5599_blank_general_contract_provision.xlsx
+++ b/hotfix_test/5599_blank_general_contract_provision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp\Downloads\mrf-test-data\hotfix_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7627A3DE-06B4-4CDE-95D2-491477D0ABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DB765F-93DD-4A7B-BA6E-8DE86263253A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74DCB167-2943-47BC-98AC-744B8923B8FD}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>inn</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/ravi-pinapaka/mrf-test-data/refs/heads/main/hotfix_test/5599_541547408_sentara-princess-anne-hospital_standardcharges.csv</t>
+    <t>https://raw.githubusercontent.com/ravi-pinapaka/mrf-test-data/refs/heads/main/hotfix_test/5299_540261840_sentara-martha-jefferson-hospital_standardcharges.csv</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -837,7 +837,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{94B714C2-8382-4C04-A75B-84532F87FA25}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E4D9D4D9-9AAF-482F-AE50-E2767BDEF0D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
